--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_first_eval_20221_21001.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_first_eval_20221_21001.xlsx
@@ -489,28 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.2177157015159319</v>
+        <v>-0.1220406607065741</v>
       </c>
       <c r="C2">
-        <v>-0.1220406607065741</v>
+        <v>-0.3824596977052969</v>
       </c>
       <c r="D2">
-        <v>-0.3824596977052969</v>
+        <v>0.4529952984531944</v>
       </c>
       <c r="E2">
-        <v>0.4529952984531944</v>
+        <v>0.3529159385505728</v>
       </c>
       <c r="F2">
-        <v>0.3529159385505728</v>
+        <v>-0.0008705675291234075</v>
       </c>
       <c r="G2">
-        <v>-0.0008705675291234075</v>
+        <v>0.1473068229033219</v>
       </c>
       <c r="H2">
-        <v>0.1473068229033219</v>
+        <v>0.3047528119074769</v>
       </c>
       <c r="I2">
-        <v>0.3047528119074769</v>
+        <v>-0.1959066446185939</v>
+      </c>
+      <c r="J2">
+        <v>0.08445123591687528</v>
+      </c>
+      <c r="K2">
+        <v>-0.08752362192813637</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,25 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.1395947820665385</v>
+        <v>-0.4000138190652613</v>
       </c>
       <c r="C3">
-        <v>-0.4000138190652613</v>
+        <v>0.4354411770932299</v>
       </c>
       <c r="D3">
-        <v>0.4354411770932299</v>
+        <v>0.3353618171906084</v>
       </c>
       <c r="E3">
-        <v>0.3353618171906084</v>
+        <v>-0.01842468888908786</v>
       </c>
       <c r="F3">
-        <v>-0.01842468888908786</v>
+        <v>0.1297527015433575</v>
       </c>
       <c r="G3">
-        <v>0.1297527015433575</v>
+        <v>0.2871986905475125</v>
       </c>
       <c r="H3">
-        <v>0.2871986905475125</v>
+        <v>-0.2134607659785583</v>
+      </c>
+      <c r="I3">
+        <v>0.06689711455691082</v>
+      </c>
+      <c r="J3">
+        <v>-0.1050777432881008</v>
+      </c>
+      <c r="K3">
+        <v>0.2007847964582307</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.3119065001142551</v>
+        <v>0.5235484960442361</v>
       </c>
       <c r="C4">
-        <v>0.5235484960442361</v>
+        <v>0.4234691361416146</v>
       </c>
       <c r="D4">
-        <v>0.4234691361416146</v>
+        <v>0.06968263006191837</v>
       </c>
       <c r="E4">
-        <v>0.06968263006191837</v>
+        <v>0.2178600204943637</v>
       </c>
       <c r="F4">
-        <v>0.2178600204943637</v>
+        <v>0.3753060094985187</v>
       </c>
       <c r="G4">
-        <v>0.3753060094985187</v>
+        <v>-0.1253534470275521</v>
       </c>
       <c r="H4">
-        <v>-0.1253534470275521</v>
+        <v>0.155004433507917</v>
       </c>
       <c r="I4">
-        <v>0.155004433507917</v>
+        <v>-0.01697042433709459</v>
       </c>
       <c r="J4">
-        <v>-0.01697042433709459</v>
+        <v>0.2888921154092369</v>
       </c>
       <c r="K4">
-        <v>0.2888921154092369</v>
+        <v>-0.3234378372780493</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,31 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.7021231295320197</v>
+        <v>0.6020437696293982</v>
       </c>
       <c r="C5">
-        <v>0.6020437696293982</v>
+        <v>0.248257263549702</v>
       </c>
       <c r="D5">
-        <v>0.248257263549702</v>
+        <v>0.3964346539821473</v>
       </c>
       <c r="E5">
-        <v>0.3964346539821473</v>
+        <v>0.5538806429863024</v>
       </c>
       <c r="F5">
-        <v>0.5538806429863024</v>
+        <v>0.0532211864602315</v>
       </c>
       <c r="G5">
-        <v>0.0532211864602315</v>
+        <v>0.3335790669957007</v>
       </c>
       <c r="H5">
-        <v>0.3335790669957007</v>
+        <v>0.161604209150689</v>
       </c>
       <c r="I5">
-        <v>0.161604209150689</v>
+        <v>0.4674667488970205</v>
       </c>
       <c r="J5">
-        <v>0.4674667488970205</v>
+        <v>-0.1448632037902657</v>
+      </c>
+      <c r="K5">
+        <v>0.5435081814088458</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.514070997382048</v>
+        <v>1.160284491302352</v>
       </c>
       <c r="C6">
-        <v>1.160284491302352</v>
+        <v>1.308461881734797</v>
       </c>
       <c r="D6">
-        <v>1.308461881734797</v>
+        <v>1.465907870738952</v>
       </c>
       <c r="E6">
-        <v>1.465907870738952</v>
+        <v>0.9652484142128814</v>
       </c>
       <c r="F6">
-        <v>0.9652484142128814</v>
+        <v>1.245606294748351</v>
       </c>
       <c r="G6">
-        <v>1.245606294748351</v>
+        <v>1.073631436903339</v>
       </c>
       <c r="H6">
-        <v>1.073631436903339</v>
+        <v>1.379493976649671</v>
       </c>
       <c r="I6">
-        <v>1.379493976649671</v>
+        <v>0.7671640239623843</v>
+      </c>
+      <c r="J6">
+        <v>1.455535409161496</v>
+      </c>
+      <c r="K6">
+        <v>1.178844253737389</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,25 +664,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.2163102553365951</v>
+        <v>0.3644876457690405</v>
       </c>
       <c r="C7">
-        <v>0.3644876457690405</v>
+        <v>0.5219336347731955</v>
       </c>
       <c r="D7">
-        <v>0.5219336347731955</v>
+        <v>0.02127417824712469</v>
       </c>
       <c r="E7">
-        <v>0.02127417824712469</v>
+        <v>0.3016320587825939</v>
       </c>
       <c r="F7">
-        <v>0.3016320587825939</v>
+        <v>0.1296572009375822</v>
       </c>
       <c r="G7">
-        <v>0.1296572009375822</v>
+        <v>0.4355197406839137</v>
       </c>
       <c r="H7">
-        <v>0.4355197406839137</v>
+        <v>-0.1768102120033725</v>
+      </c>
+      <c r="I7">
+        <v>0.511561173195739</v>
+      </c>
+      <c r="J7">
+        <v>0.2348700177716323</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -666,30 +696,27 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.3684555432821496</v>
+        <v>0.5259015322863045</v>
       </c>
       <c r="C8">
-        <v>0.5259015322863045</v>
+        <v>0.0252420757602338</v>
       </c>
       <c r="D8">
-        <v>0.0252420757602338</v>
+        <v>0.305599956295703</v>
       </c>
       <c r="E8">
-        <v>0.305599956295703</v>
+        <v>0.1336250984506913</v>
       </c>
       <c r="F8">
-        <v>0.1336250984506913</v>
+        <v>0.4394876381970228</v>
       </c>
       <c r="G8">
-        <v>0.4394876381970228</v>
+        <v>-0.1728423144902634</v>
       </c>
       <c r="H8">
-        <v>-0.1728423144902634</v>
+        <v>0.5155290707088481</v>
       </c>
       <c r="I8">
-        <v>0.5155290707088481</v>
-      </c>
-      <c r="J8">
         <v>0.2388379152847414</v>
       </c>
     </row>
@@ -698,27 +725,24 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.661541622456546</v>
+        <v>0.1608821659304752</v>
       </c>
       <c r="C9">
-        <v>0.1608821659304752</v>
+        <v>0.4412400464659443</v>
       </c>
       <c r="D9">
-        <v>0.4412400464659443</v>
+        <v>0.2692651886209327</v>
       </c>
       <c r="E9">
-        <v>0.2692651886209327</v>
+        <v>0.5751277283672642</v>
       </c>
       <c r="F9">
-        <v>0.5751277283672642</v>
+        <v>-0.03720222432002201</v>
       </c>
       <c r="G9">
-        <v>-0.03720222432002201</v>
+        <v>0.6511691608790895</v>
       </c>
       <c r="H9">
-        <v>0.6511691608790895</v>
-      </c>
-      <c r="I9">
         <v>0.3744780054549828</v>
       </c>
     </row>
@@ -727,24 +751,21 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.07992401592518952</v>
+        <v>0.2004338646102796</v>
       </c>
       <c r="C10">
-        <v>0.2004338646102796</v>
+        <v>0.028459006765268</v>
       </c>
       <c r="D10">
-        <v>0.028459006765268</v>
+        <v>0.3343215465115995</v>
       </c>
       <c r="E10">
-        <v>0.3343215465115995</v>
+        <v>-0.2780084061756867</v>
       </c>
       <c r="F10">
-        <v>-0.2780084061756867</v>
+        <v>0.4103629790234248</v>
       </c>
       <c r="G10">
-        <v>0.4103629790234248</v>
-      </c>
-      <c r="H10">
         <v>0.1336718235993181</v>
       </c>
     </row>
@@ -753,21 +774,18 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.1551026493581833</v>
+        <v>-0.01687220848682837</v>
       </c>
       <c r="C11">
-        <v>-0.01687220848682837</v>
+        <v>0.2889903312595031</v>
       </c>
       <c r="D11">
-        <v>0.2889903312595031</v>
+        <v>-0.3233396214277831</v>
       </c>
       <c r="E11">
-        <v>-0.3233396214277831</v>
+        <v>0.3650317637713285</v>
       </c>
       <c r="F11">
-        <v>0.3650317637713285</v>
-      </c>
-      <c r="G11">
         <v>0.08834060834722172</v>
       </c>
     </row>
@@ -776,18 +794,15 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.08373363042288225</v>
+        <v>0.2221289093234493</v>
       </c>
       <c r="C12">
-        <v>0.2221289093234493</v>
+        <v>-0.3902010433638369</v>
       </c>
       <c r="D12">
-        <v>-0.3902010433638369</v>
+        <v>0.2981703418352746</v>
       </c>
       <c r="E12">
-        <v>0.2981703418352746</v>
-      </c>
-      <c r="F12">
         <v>0.02147918641116785</v>
       </c>
     </row>
@@ -796,15 +811,12 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.1925427069667326</v>
+        <v>-0.4197872457205535</v>
       </c>
       <c r="C13">
-        <v>-0.4197872457205535</v>
+        <v>0.268584139478558</v>
       </c>
       <c r="D13">
-        <v>0.268584139478558</v>
-      </c>
-      <c r="E13">
         <v>-0.00810701594554874</v>
       </c>
     </row>
@@ -813,12 +825,9 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.4379379024501944</v>
+        <v>0.2504334827489171</v>
       </c>
       <c r="C14">
-        <v>0.2504334827489171</v>
-      </c>
-      <c r="D14">
         <v>-0.02625767267518964</v>
       </c>
     </row>
@@ -827,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.2324016585002178</v>
-      </c>
-      <c r="C15">
         <v>-0.04428949692388896</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_first_eval_20221_21001.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_first_eval_20221_21001.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.2177157015159319</v>
+      </c>
+      <c r="C2">
         <v>-0.1220406607065741</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.3824596977052969</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.4529952984531944</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.3529159385505728</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.0008705675291234075</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.1473068229033219</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.3047528119074769</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.1959066446185939</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.08445123591687528</v>
-      </c>
-      <c r="K2">
-        <v>-0.08752362192813637</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-0.1395947820665385</v>
+      </c>
+      <c r="C3">
         <v>-0.4000138190652613</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.4354411770932299</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3353618171906084</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.01842468888908786</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.1297527015433575</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2871986905475125</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.2134607659785583</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.06689711455691082</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.1050777432881008</v>
-      </c>
-      <c r="K3">
-        <v>0.2007847964582307</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-0.3119065001142551</v>
+      </c>
+      <c r="C4">
         <v>0.5235484960442361</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.4234691361416146</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.06968263006191837</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.2178600204943637</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.3753060094985187</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.1253534470275521</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.155004433507917</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-0.01697042433709459</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.2888921154092369</v>
-      </c>
-      <c r="K4">
-        <v>-0.3234378372780493</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.7021231295320197</v>
+      </c>
+      <c r="C5">
         <v>0.6020437696293982</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.248257263549702</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.3964346539821473</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.5538806429863024</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.0532211864602315</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3335790669957007</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.161604209150689</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.4674667488970205</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.1448632037902657</v>
-      </c>
-      <c r="K5">
-        <v>0.5435081814088458</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.514070997382048</v>
+      </c>
+      <c r="C6">
         <v>1.160284491302352</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.308461881734797</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.465907870738952</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.9652484142128814</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.245606294748351</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.073631436903339</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.379493976649671</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.7671640239623843</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.455535409161496</v>
-      </c>
-      <c r="K6">
-        <v>1.178844253737389</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,30 +664,33 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>0.2163102553365951</v>
+      </c>
+      <c r="C7">
         <v>0.3644876457690405</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.5219336347731955</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.02127417824712469</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3016320587825939</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.1296572009375822</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.4355197406839137</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.1768102120033725</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.511561173195739</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.2348700177716323</v>
       </c>
     </row>
@@ -696,27 +699,30 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.3684555432821496</v>
+      </c>
+      <c r="C8">
         <v>0.5259015322863045</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.0252420757602338</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.305599956295703</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1336250984506913</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.4394876381970228</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.1728423144902634</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.5155290707088481</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.2388379152847414</v>
       </c>
     </row>
@@ -725,24 +731,27 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.661541622456546</v>
+      </c>
+      <c r="C9">
         <v>0.1608821659304752</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.4412400464659443</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2692651886209327</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.5751277283672642</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.03720222432002201</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.6511691608790895</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.3744780054549828</v>
       </c>
     </row>
@@ -751,21 +760,24 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.07992401592518952</v>
+      </c>
+      <c r="C10">
         <v>0.2004338646102796</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.028459006765268</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.3343215465115995</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.2780084061756867</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.4103629790234248</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.1336718235993181</v>
       </c>
     </row>
@@ -774,18 +786,21 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.1551026493581833</v>
+      </c>
+      <c r="C11">
         <v>-0.01687220848682837</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.2889903312595031</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.3233396214277831</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.3650317637713285</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.08834060834722172</v>
       </c>
     </row>
@@ -794,15 +809,18 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.08373363042288225</v>
+      </c>
+      <c r="C12">
         <v>0.2221289093234493</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.3902010433638369</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2981703418352746</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.02147918641116785</v>
       </c>
     </row>
@@ -811,12 +829,15 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.1925427069667326</v>
+      </c>
+      <c r="C13">
         <v>-0.4197872457205535</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.268584139478558</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.00810701594554874</v>
       </c>
     </row>
@@ -825,9 +846,12 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.4379379024501944</v>
+      </c>
+      <c r="C14">
         <v>0.2504334827489171</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.02625767267518964</v>
       </c>
     </row>
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.2324016585002178</v>
+      </c>
+      <c r="C15">
         <v>-0.04428949692388896</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_first_eval_20221_21001.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_first_eval_20221_21001.xlsx
@@ -512,12 +512,6 @@
       <c r="I2">
         <v>0.3047528119074769</v>
       </c>
-      <c r="J2">
-        <v>-0.1959066446185939</v>
-      </c>
-      <c r="K2">
-        <v>0.08445123591687528</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -544,15 +538,6 @@
       <c r="H3">
         <v>0.2871986905475125</v>
       </c>
-      <c r="I3">
-        <v>-0.2134607659785583</v>
-      </c>
-      <c r="J3">
-        <v>0.06689711455691082</v>
-      </c>
-      <c r="K3">
-        <v>-0.1050777432881008</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -620,9 +605,6 @@
       <c r="J5">
         <v>0.4674667488970205</v>
       </c>
-      <c r="K5">
-        <v>-0.1448632037902657</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -652,12 +634,6 @@
       <c r="I6">
         <v>1.379493976649671</v>
       </c>
-      <c r="J6">
-        <v>0.7671640239623843</v>
-      </c>
-      <c r="K6">
-        <v>1.455535409161496</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -683,15 +659,6 @@
       </c>
       <c r="H7">
         <v>0.4355197406839137</v>
-      </c>
-      <c r="I7">
-        <v>-0.1768102120033725</v>
-      </c>
-      <c r="J7">
-        <v>0.511561173195739</v>
-      </c>
-      <c r="K7">
-        <v>0.2348700177716323</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_first_eval_20221_21001.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_first_eval_20221_21001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Q0</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>2025-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-10-01 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,6 +844,11 @@
         <v>-0.09587373626955231</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
